--- a/medicine/Psychotrope/Romeo_y_Julieta/Romeo_y_Julieta.xlsx
+++ b/medicine/Psychotrope/Romeo_y_Julieta/Romeo_y_Julieta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Romeo y Julieta (Roméo et Juliette) est une marque de cigares cubains classée dans le milieu supérieur (medio alto) de la pyramide des marques selon la société Habanos S.A. qui la commercialise.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire de la marque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque Romeo y Julieta est fondée à La Havane en 1875 par deux espagnols Inocensio Alvarez Rodriguez et José Manin Garcia. Ils installent leur fabrique rue San Rafael, puis rue Belascoin.
 Trente ans plus tard, elle est rachetée par José Rodriguez, dit "Don Pepin". Celui-ci développe surtout l'image de la marque, vouée à l'exportation, et rachète, par exemple, le Palais des Capulet à Vérone et y installe une boutique de cigares.
@@ -546,7 +560,9 @@
           <t>Gamme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La gamme Romeo y julieta est la plus vaste des cubains : une vingtaine de modules différents, sans compter les éditions spéciales ! Les modules les plus connus sont le très célèbre Churchill, le plus gros de la gamme, et le Millefleur, petit module facile d'accès et aux dimensions adaptées au temps de fumage dont disposent actuellement les amateurs de cigares.
 La marque propose régulièrement de nouveaux modules, le dernier étant le Wide Churchill, tandis que d'autres sont retirés du catalogue. La liste donnée ici est donc indicative.
@@ -597,7 +613,9 @@
           <t>Modules et chefs de gouvernement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Julieta N°2 a porté successivement le nom de deux chefs de Gouvernement. Après la Première Guerre Mondiale, le nom de Clemenceau lui fut donné. La référence resta au catalogue de la marque jusqu'en 1980.
 Mais, à cette date, il était déjà connu, et même très célèbre, sous un autre nom, celui de Churchill, qui lui fut donné après 1947 à la suite de la visite du Premier ministre britannique, grand amateur de la marque, à la fabrique. Le nom est d'ailleurs resté comme générique du format correspondant.
